--- a/src/test/resources/sample/Excel/existingTranslations.xlsx
+++ b/src/test/resources/sample/Excel/existingTranslations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t xml:space="preserve">Key</t>
   </si>
@@ -128,6 +128,42 @@
   </si>
   <si>
     <t xml:space="preserve">This is Welsh text 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.bbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.ccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.eee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.fff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 12</t>
   </si>
 </sst>
 </file>
@@ -271,18 +307,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3927125506073"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.4777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.1862348178138"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,6 +463,50 @@
       </c>
       <c r="C15" s="0" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/sample/Excel/existingTranslations.xlsx
+++ b/src/test/resources/sample/Excel/existingTranslations.xlsx
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welsh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t xml:space="preserve">aaa.bbb.ccc</t>
   </si>
@@ -37,97 +28,97 @@
     <t xml:space="preserve">This is english text 1</t>
   </si>
   <si>
+    <t xml:space="preserve">aaa.ccc.ddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.ddd.eee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.eee.fff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.fff.ggg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.ggg.hhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.hhh.iii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.iii.jjj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb.aaa.bbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb.bbb.ccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb.ccc.ddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb.ddd.eee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 4 with circumflex ystâd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb.eee.fff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">ccc.aaa.bbb</t>
   </si>
   <si>
-    <t xml:space="preserve">This is english text 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is Welsh text 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb.ccc.ddd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.ccc.ddd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.ddd.eee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.eee.fff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb.aaa.bbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.fff.ggg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.ggg.hhh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb.bbb.ccc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb.ddd.eee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 4 with circumflex ystâd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.hhh.iii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.iii.jjj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb.eee.fff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 5</t>
   </si>
   <si>
     <t xml:space="preserve">ggg.aaa.bbb</t>
@@ -173,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -195,13 +186,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -254,16 +238,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,12 +272,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:C50" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:C49" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C49"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Key"/>
-    <tableColumn id="2" name="English"/>
-    <tableColumn id="3" name="Welsh"/>
+    <tableColumn id="1" name="aaa.bbb.ccc"/>
+    <tableColumn id="2" name="This is english text 1"/>
+    <tableColumn id="3" name=""/>
   </tableColumns>
 </table>
 </file>
@@ -307,36 +287,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.1052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.6234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.4777327935223"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.1862348178138"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.9352226720648"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.6477732793522"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.5587044534413"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -347,34 +328,34 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -383,9 +364,6 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -412,34 +390,34 @@
       <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -448,11 +426,14 @@
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -465,7 +446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>36</v>
       </c>
@@ -498,17 +479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="true" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
